--- a/Keyword Creation/N10 - REQUIREMENTS.xlsx
+++ b/Keyword Creation/N10 - REQUIREMENTS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="168">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -82,6 +82,15 @@
     <t xml:space="preserve">PLAZO SUBSANAR DEFECTO</t>
   </si>
   <si>
+    <t xml:space="preserve">REQUERIU-LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A FI DE QUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA QUE EN EL PLAZO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N10 - REQUIREMENT SPECIFICATION</t>
   </si>
   <si>
@@ -361,6 +370,21 @@
     <t xml:space="preserve">SI ACEPTA O RECHAZA UNA PROPUESTA DE REQUERIMIENTO DE PAGO</t>
   </si>
   <si>
+    <t xml:space="preserve">DOCUMENTACIÓN NECESARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA QUE CUMPLA EL REQUERIMIENTO EFECTUADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR CONSTAR EL DOMICILIO COMO DESCONOCIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENTE CONTRATO OBJECTO DE CESIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIGEN DE LA CANTIDAD RECLAMADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">N10 - FULL REQUIREMENT SPECIFICATION</t>
   </si>
   <si>
@@ -446,6 +470,15 @@
   </si>
   <si>
     <t xml:space="preserve">PARA SUBSANAR LA FALTA DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA SUBSANARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA OTRA PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ACUERDA LA PRORROGA DEL PLAZO CONCEDIDO</t>
   </si>
   <si>
     <t xml:space="preserve">TICKETS</t>
@@ -607,12 +640,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -636,16 +669,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F339"/>
+  <dimension ref="A1:Z348"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5910931174089"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
@@ -803,39 +836,85 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>25</v>
@@ -843,106 +922,100 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>15</v>
@@ -951,12 +1024,12 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>15</v>
@@ -965,12 +1038,12 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>15</v>
@@ -979,276 +1052,282 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="0" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>71</v>
@@ -1262,7 +1341,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>73</v>
@@ -1270,580 +1349,677 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="C68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>94</v>
+        <v>23</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>99</v>
+        <v>23</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>114</v>
+      <c r="A111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
-        <v>113</v>
+      <c r="A112" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="0" t="s">
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="5" t="s">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>126</v>
-      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>140</v>
@@ -1854,97 +2030,215 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>150</v>
-      </c>
+      <c r="C138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>151</v>
+      <c r="A140" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,19 +2278,91 @@
         <v>2</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
